--- a/src/data/DemoAPITestCase.xlsx
+++ b/src/data/DemoAPITestCase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_project\automation_interface\DemoAPI\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\automated_api\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8286CC4-181D-41EA-BBC6-8A7CEFC7E162}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4688893-FE60-4B6D-8D54-CDDB4306B852}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,80 +25,187 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>查询发布会</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>event_query_001</t>
   </si>
   <si>
-    <t>发布会id查询</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/get_event_list/</t>
+    <t>module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> testers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>get</t>
-  </si>
-  <si>
-    <t>module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseCase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>params</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> testers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"eid":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"qq": "2186656812"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"method"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"pc"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>获取pc头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_query_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.muxiaoguo.cn/api/tiangourj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>舔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🐕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>语录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询语录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_query_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.muxiaoguo.cn/api/sjtx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.muxiaoguo.cn/api/QqInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +269,38 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFBBBBBB"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF89CA78"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -210,7 +349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -220,15 +359,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,13 +371,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -585,195 +734,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11" style="3" customWidth="1"/>
-    <col min="8" max="8" width="28" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="10" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="46.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="10.21875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="11">
+      <c r="I2" s="6"/>
+      <c r="J2" s="7">
         <v>200</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="12"/>
+    <row r="3" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1">
+        <v>200</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1">
+        <v>200</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://127.0.0.1:8000/api/get_event_list/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{9D36C590-871F-4327-A2D8-73D017DF678B}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{BF89DD0A-F819-4EAD-954F-2F02F0BAB918}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{16A85CCB-415A-4C9B-9664-DAE06DFF8DD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/src/data/DemoAPITestCase.xlsx
+++ b/src/data/DemoAPITestCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\automated_api\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitproject\automated_api\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4688893-FE60-4B6D-8D54-CDDB4306B852}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFD2B64-B0A7-4E20-BB3C-04D9A24FB184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>event_query_001</t>
   </si>
@@ -90,80 +90,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"qq": "2186656812"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq信息查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询QQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"method"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFBBBBBB"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"pc"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFBBBBBB"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>获取pc头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>event_query_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://api.muxiaoguo.cn/api/tiangourj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_query_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"word": "Start"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.muxiaoguo.cn/api/chengyujielong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成语接龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯域名拦截检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.muxiaoguo.cn/api/ymljjc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"url": "https://api.muxiaoguo.cn"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询语录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -193,19 +160,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询语录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_query_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://api.muxiaoguo.cn/api/sjtx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://api.muxiaoguo.cn/api/QqInfo</t>
+    <t>https://api.muxiaoguo.cn/api/tiangourj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,18 +238,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFBBBBBB"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF89CA78"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -392,8 +335,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -738,28 +681,28 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="46.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="46.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
     <col min="8" max="8" width="28" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="1"/>
-    <col min="13" max="13" width="10.21875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="1"/>
+    <col min="13" max="13" width="10.25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -800,24 +743,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -831,23 +774,23 @@
       <c r="L2" s="4"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="1">
@@ -857,21 +800,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="J4" s="1">
         <v>200</v>
@@ -900,7 +843,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -913,7 +856,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/data/DemoAPITestCase.xlsx
+++ b/src/data/DemoAPITestCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitproject\automated_api\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\automated_api\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFD2B64-B0A7-4E20-BB3C-04D9A24FB184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221146F0-B408-4493-A5E1-FE0A7E9714D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>event_query_001</t>
   </si>
@@ -98,14 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_query_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"word": "Start"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,40 +119,6 @@
   </si>
   <si>
     <t>{"url": "https://api.muxiaoguo.cn"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询语录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>舔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>🐕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>语录</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://api.muxiaoguo.cn/api/tiangourj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,12 +196,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -677,32 +629,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="13" customWidth="1"/>
-    <col min="5" max="5" width="46.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="46.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
     <col min="8" max="8" width="28" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="1"/>
-    <col min="13" max="13" width="10.25" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.875" style="1"/>
+    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="10.21875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -743,24 +695,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -774,52 +726,29 @@
       <c r="L2" s="4"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1">
         <v>200</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1">
-        <v>200</v>
-      </c>
-      <c r="K4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -830,10 +759,9 @@
     <hyperlink ref="D2" r:id="rId1" display="http://127.0.0.1:8000/api/get_event_list/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{9D36C590-871F-4327-A2D8-73D017DF678B}"/>
     <hyperlink ref="E3" r:id="rId3" xr:uid="{BF89DD0A-F819-4EAD-954F-2F02F0BAB918}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{16A85CCB-415A-4C9B-9664-DAE06DFF8DD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -843,7 +771,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -856,7 +784,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/data/DemoAPITestCase.xlsx
+++ b/src/data/DemoAPITestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\automated_api\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221146F0-B408-4493-A5E1-FE0A7E9714D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FC9329-1E38-4961-9508-075919296CA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,107 +18,88 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> testers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"format": "json"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狗高清壁纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.66mz8.com/api/rand.sgimg.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>event_query_001</t>
-  </si>
-  <si>
-    <t>module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseCase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>params</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> testers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_query_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"word": "Start"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://api.muxiaoguo.cn/api/chengyujielong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成语接龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯域名拦截检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://api.muxiaoguo.cn/api/ymljjc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"url": "https://api.muxiaoguo.cn"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,22 +138,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF00FF00"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF808000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -212,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -220,74 +185,41 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,139 +561,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="46.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="1"/>
-    <col min="13" max="13" width="10.21875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="14.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="46.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="8" width="28" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="3"/>
+    <col min="13" max="13" width="10.21875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3">
+        <v>200</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7">
-        <v>200</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1">
-        <v>200</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://127.0.0.1:8000/api/get_event_list/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{9D36C590-871F-4327-A2D8-73D017DF678B}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{BF89DD0A-F819-4EAD-954F-2F02F0BAB918}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{BF89DD0A-F819-4EAD-954F-2F02F0BAB918}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
